--- a/tests/Tests.xlsx
+++ b/tests/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Desktop\Nova pasta\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB6853B-8D37-480B-B1C4-595947EC8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC500BB-9BE9-41E5-A3E7-BA9ED6228EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>ACO</t>
   </si>
@@ -80,100 +80,100 @@
     <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita</t>
   </si>
   <si>
+    <t>teste up titulo2</t>
+  </si>
+  <si>
+    <t>teste up titulo3</t>
+  </si>
+  <si>
+    <t>teste up titulo4</t>
+  </si>
+  <si>
+    <t>teste up subtitulo1</t>
+  </si>
+  <si>
+    <t>teste up subtitulo2</t>
+  </si>
+  <si>
+    <t>teste up subtitulo3</t>
+  </si>
+  <si>
+    <t>teste up subtitulo4</t>
+  </si>
+  <si>
+    <t>teste up cta1</t>
+  </si>
+  <si>
+    <t>teste up cta2</t>
+  </si>
+  <si>
+    <t>teste up cta3</t>
+  </si>
+  <si>
+    <t>teste up cta4</t>
+  </si>
+  <si>
+    <t>teste.png</t>
+  </si>
+  <si>
+    <t>testeroxo.png</t>
+  </si>
+  <si>
+    <t>testeazul.png</t>
+  </si>
+  <si>
+    <t>testevermelho.png</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à direita - Título, subtítulo e CTA à esquerda</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título e subtítulo à direita</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à direita - Título e subtítulo à esquerda</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título e CTA à direita</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Subtítulo e CTA à direita</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à direita - Título e CTA à esquerda</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à direita - Subtítulo e CTA à esquerda</t>
+  </si>
+  <si>
+    <t>#2463CB</t>
+  </si>
+  <si>
+    <t>#3C7CFF</t>
+  </si>
+  <si>
+    <t>#3C96FF</t>
+  </si>
+  <si>
+    <t>#2ED4FA</t>
+  </si>
+  <si>
+    <t>#1aae54</t>
+  </si>
+  <si>
+    <t>#C6DF30</t>
+  </si>
+  <si>
+    <t>#00C99C</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>Layouts</t>
+  </si>
+  <si>
     <t>teste up titulo1</t>
-  </si>
-  <si>
-    <t>teste up titulo2</t>
-  </si>
-  <si>
-    <t>teste up titulo3</t>
-  </si>
-  <si>
-    <t>teste up titulo4</t>
-  </si>
-  <si>
-    <t>teste up subtitulo1</t>
-  </si>
-  <si>
-    <t>teste up subtitulo2</t>
-  </si>
-  <si>
-    <t>teste up subtitulo3</t>
-  </si>
-  <si>
-    <t>teste up subtitulo4</t>
-  </si>
-  <si>
-    <t>teste up cta1</t>
-  </si>
-  <si>
-    <t>teste up cta2</t>
-  </si>
-  <si>
-    <t>teste up cta3</t>
-  </si>
-  <si>
-    <t>teste up cta4</t>
-  </si>
-  <si>
-    <t>teste.png</t>
-  </si>
-  <si>
-    <t>testeroxo.png</t>
-  </si>
-  <si>
-    <t>testeazul.png</t>
-  </si>
-  <si>
-    <t>testevermelho.png</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à direita - Título, subtítulo e CTA à esquerda</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à esquerda - Título e subtítulo à direita</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à direita - Título e subtítulo à esquerda</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à esquerda - Título e CTA à direita</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à esquerda - Subtítulo e CTA à direita</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à direita - Título e CTA à esquerda</t>
-  </si>
-  <si>
-    <t>Cartão com imagem à direita - Subtítulo e CTA à esquerda</t>
-  </si>
-  <si>
-    <t>#2463CB</t>
-  </si>
-  <si>
-    <t>#3C7CFF</t>
-  </si>
-  <si>
-    <t>#3C96FF</t>
-  </si>
-  <si>
-    <t>#2ED4FA</t>
-  </si>
-  <si>
-    <t>#1aae54</t>
-  </si>
-  <si>
-    <t>#C6DF30</t>
-  </si>
-  <si>
-    <t>#00C99C</t>
-  </si>
-  <si>
-    <t>cores</t>
-  </si>
-  <si>
-    <t>Layouts</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -752,32 +752,30 @@
       <c r="A3" s="6">
         <v>35427</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="7">
         <v>319</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>10</v>
@@ -797,31 +795,31 @@
         <v>35428</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7">
         <v>322</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>10</v>
@@ -841,31 +839,31 @@
         <v>35429</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7">
         <v>271</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>10</v>
@@ -885,31 +883,31 @@
         <v>35430</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7">
         <v>275</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>10</v>
@@ -979,7 +977,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -989,42 +987,42 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1046,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,32 +1054,32 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1091,7 +1089,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
